--- a/analysis/praise-goals_data.xlsx
+++ b/analysis/praise-goals_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinkcupcakes123/Documents/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430B966A-D71C-1A4C-A0FA-7434E548EF76}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4638087D-5977-4A42-8523-767BA6B694B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16240" xr2:uid="{ED4A2F99-2A64-E245-A7C2-8F26E97E91EE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="120">
   <si>
     <t>count</t>
   </si>
@@ -102,15 +102,9 @@
     <t>drawing1_type</t>
   </si>
   <si>
-    <t>good/bad</t>
-  </si>
-  <si>
     <t>drawing1_response</t>
   </si>
   <si>
-    <t>teacher name</t>
-  </si>
-  <si>
     <t>drawing2_type</t>
   </si>
   <si>
@@ -150,10 +144,253 @@
     <t>CB</t>
   </si>
   <si>
-    <t>1--8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I_A or A_I </t>
+    <t>PG_190812_02</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>bing</t>
+  </si>
+  <si>
+    <t>molly</t>
+  </si>
+  <si>
+    <t>ba1134</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>cuz it's not like this one [bad]</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>karen</t>
+  </si>
+  <si>
+    <t>linda</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>A_I</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>cuz teacher linda says all of the drawings are nice</t>
+  </si>
+  <si>
+    <t>cuz she says that it's all good</t>
+  </si>
+  <si>
+    <t>had a hedgehog toy, asked me which teacher the hedgehog would pick, I answered linda which could have affected his last answer</t>
+  </si>
+  <si>
+    <t>cuz she says all of the drawings are good</t>
+  </si>
+  <si>
+    <t>PG_190813_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has played praise draw before </t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>ba1018</t>
+  </si>
+  <si>
+    <t>because it [bad] is scribble scrabble</t>
+  </si>
+  <si>
+    <t>[no answer]</t>
+  </si>
+  <si>
+    <t>PG_190813_02</t>
+  </si>
+  <si>
+    <t>bb384</t>
+  </si>
+  <si>
+    <t>because it's good</t>
+  </si>
+  <si>
+    <t>because she wants to see it</t>
+  </si>
+  <si>
+    <t>I don't know</t>
+  </si>
+  <si>
+    <t>PG_190814_01</t>
+  </si>
+  <si>
+    <t>ba1157</t>
+  </si>
+  <si>
+    <t>because it's just right</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>I_A</t>
+  </si>
+  <si>
+    <t>because it's good, because flowers are not supposed to be like this [bad] or like this [takes the other bad one out of my lap], [keeps talking about good and bad flowers and looking at the ones in my lap]</t>
+  </si>
+  <si>
+    <t>because I like flowers</t>
+  </si>
+  <si>
+    <t>because I have no idea how to do it</t>
+  </si>
+  <si>
+    <t>PG_190814_02</t>
+  </si>
+  <si>
+    <t>bb345</t>
+  </si>
+  <si>
+    <t>cuz it looks more like a flower</t>
+  </si>
+  <si>
+    <t>I don't really know I just picked it</t>
+  </si>
+  <si>
+    <t>I don't know I just picked it</t>
+  </si>
+  <si>
+    <t>PG_190815_01</t>
+  </si>
+  <si>
+    <t>ba757</t>
+  </si>
+  <si>
+    <t>because this one [good] is better and this one [bad] is badder because that [bad] doesn’t look like this one</t>
+  </si>
+  <si>
+    <t>because that one's best</t>
+  </si>
+  <si>
+    <t>cuz I like her</t>
+  </si>
+  <si>
+    <t>because I like her too</t>
+  </si>
+  <si>
+    <t>PG_190815_02</t>
+  </si>
+  <si>
+    <t>bb240</t>
+  </si>
+  <si>
+    <t>because it has the pollen</t>
+  </si>
+  <si>
+    <t>because it looks even better</t>
+  </si>
+  <si>
+    <t>because she is wearing my favorite color of shirt</t>
+  </si>
+  <si>
+    <t>cuz she gave the boy all of the paper stickers and she [karen] only did three</t>
+  </si>
+  <si>
+    <t>PG_190816_01</t>
+  </si>
+  <si>
+    <t>bb123</t>
+  </si>
+  <si>
+    <t>it's because it has better petals</t>
+  </si>
+  <si>
+    <t>it's because I really like flowers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has a slight speech impediment, so kind of hard to hear if she was saying teacher names right, I passed her because it sounded right  </t>
+  </si>
+  <si>
+    <t>it's because I love that name</t>
+  </si>
+  <si>
+    <t>it's because I love drawing</t>
+  </si>
+  <si>
+    <t>PG_190816_02</t>
+  </si>
+  <si>
+    <t>bb091</t>
+  </si>
+  <si>
+    <t>because it has all of the things, petals, the inside, stem, and leaves, but this one [bad] just goes like [scribble motions]</t>
+  </si>
+  <si>
+    <t>I forgot to ask why for drawing 4</t>
+  </si>
+  <si>
+    <t>PG_190819_01</t>
+  </si>
+  <si>
+    <t>ba996</t>
+  </si>
+  <si>
+    <t>because it's better than that [bad]</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>first day of official CB scheme; I changed the photos of teachers to include their stickers for the second half of the game; this child was both shy and fidgety, so she was quiet and slow to answer (unsure if she actually passed the teacher check, wouldn't really answer the exploratory questions) but also mixing around the pictures of the teachers, made testing slightly difficult; also asked which tacher she would do more with later, she chose linda</t>
+  </si>
+  <si>
+    <t>PG_190820_01</t>
+  </si>
+  <si>
+    <t>ba1028</t>
+  </si>
+  <si>
+    <t>because because because it's a real flower</t>
+  </si>
+  <si>
+    <t>because because because because because because she loves to play with teacher karen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because because because because because because because because I like drawings </t>
+  </si>
+  <si>
+    <t>because she [inaudible]</t>
+  </si>
+  <si>
+    <t>PG_190820_02</t>
+  </si>
+  <si>
+    <t>ba1027</t>
+  </si>
+  <si>
+    <t>because it looks like a flower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because she said this one this one and these, this one was great </t>
+  </si>
+  <si>
+    <t>because I like these drawings</t>
+  </si>
+  <si>
+    <t>because she said these ones are best</t>
   </si>
 </sst>
 </file>
@@ -189,9 +426,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,13 +745,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E424048F-9EE3-4749-A4B4-5D096AA9A042}">
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AK13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="AK13" sqref="AK13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" customWidth="1"/>
+    <col min="13" max="13" width="15.5" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1"/>
+    <col min="16" max="16" width="18.1640625" customWidth="1"/>
+    <col min="17" max="17" width="15.83203125" customWidth="1"/>
+    <col min="18" max="18" width="19" customWidth="1"/>
+    <col min="19" max="19" width="18.33203125" customWidth="1"/>
+    <col min="20" max="20" width="16" customWidth="1"/>
+    <col min="21" max="21" width="19.1640625" customWidth="1"/>
+    <col min="22" max="22" width="4.33203125" customWidth="1"/>
+    <col min="23" max="23" width="5.83203125" customWidth="1"/>
+    <col min="24" max="24" width="13.6640625" customWidth="1"/>
+    <col min="25" max="25" width="17.1640625" customWidth="1"/>
+    <col min="26" max="26" width="13.33203125" customWidth="1"/>
+    <col min="27" max="27" width="17.1640625" customWidth="1"/>
+    <col min="28" max="28" width="13.5" customWidth="1"/>
+    <col min="29" max="29" width="17" customWidth="1"/>
+    <col min="30" max="30" width="13.6640625" customWidth="1"/>
+    <col min="31" max="31" width="17.5" customWidth="1"/>
+    <col min="32" max="32" width="19.1640625" customWidth="1"/>
+    <col min="33" max="33" width="9.83203125" customWidth="1"/>
+    <col min="34" max="34" width="20.5" customWidth="1"/>
+    <col min="35" max="35" width="9.83203125" customWidth="1"/>
+    <col min="36" max="36" width="20.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -579,7 +855,7 @@
         <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W1" t="s">
         <v>21</v>
@@ -588,57 +864,1381 @@
         <v>22</v>
       </c>
       <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="V2" s="1" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43689</v>
+      </c>
+      <c r="D2">
+        <v>5.35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
         <v>39</v>
       </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
       <c r="W2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43690</v>
+      </c>
+      <c r="D3">
+        <v>5.08</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
         <v>40</v>
       </c>
-      <c r="X2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>25</v>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U3" t="s">
+        <v>49</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43690</v>
+      </c>
+      <c r="D4">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" t="s">
+        <v>48</v>
+      </c>
+      <c r="U4" t="s">
+        <v>49</v>
+      </c>
+      <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="W4" t="s">
+        <v>50</v>
+      </c>
+      <c r="X4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43691</v>
+      </c>
+      <c r="D5">
+        <v>4.08</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" t="s">
+        <v>48</v>
+      </c>
+      <c r="U5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="W5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43691</v>
+      </c>
+      <c r="D6">
+        <v>5.33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" t="s">
+        <v>49</v>
+      </c>
+      <c r="S6" t="s">
+        <v>45</v>
+      </c>
+      <c r="T6" t="s">
+        <v>48</v>
+      </c>
+      <c r="U6" t="s">
+        <v>49</v>
+      </c>
+      <c r="V6">
+        <v>5</v>
+      </c>
+      <c r="W6" t="s">
+        <v>71</v>
+      </c>
+      <c r="X6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43692</v>
+      </c>
+      <c r="D7">
+        <v>5.88</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" t="s">
+        <v>49</v>
+      </c>
+      <c r="S7" t="s">
+        <v>45</v>
+      </c>
+      <c r="T7" t="s">
+        <v>48</v>
+      </c>
+      <c r="U7" t="s">
+        <v>49</v>
+      </c>
+      <c r="V7">
+        <v>6</v>
+      </c>
+      <c r="W7" t="s">
+        <v>71</v>
+      </c>
+      <c r="X7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43692</v>
+      </c>
+      <c r="D8">
+        <v>4.55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>48</v>
+      </c>
+      <c r="R8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T8" t="s">
+        <v>48</v>
+      </c>
+      <c r="U8" t="s">
+        <v>49</v>
+      </c>
+      <c r="V8">
+        <v>7</v>
+      </c>
+      <c r="W8" t="s">
+        <v>50</v>
+      </c>
+      <c r="X8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43693</v>
+      </c>
+      <c r="D9">
+        <v>4.04</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" t="s">
+        <v>47</v>
+      </c>
+      <c r="P9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>48</v>
+      </c>
+      <c r="R9" t="s">
+        <v>49</v>
+      </c>
+      <c r="S9" t="s">
+        <v>45</v>
+      </c>
+      <c r="T9" t="s">
+        <v>48</v>
+      </c>
+      <c r="U9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V9">
+        <v>8</v>
+      </c>
+      <c r="W9" t="s">
+        <v>71</v>
+      </c>
+      <c r="X9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="2">
+        <v>43693</v>
+      </c>
+      <c r="D10">
+        <v>4.62</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>48</v>
+      </c>
+      <c r="R10" t="s">
+        <v>49</v>
+      </c>
+      <c r="S10" t="s">
+        <v>45</v>
+      </c>
+      <c r="T10" t="s">
+        <v>48</v>
+      </c>
+      <c r="U10" t="s">
+        <v>49</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10" t="s">
+        <v>50</v>
+      </c>
+      <c r="X10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="2">
+        <v>43696</v>
+      </c>
+      <c r="D11">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>48</v>
+      </c>
+      <c r="R11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S11" t="s">
+        <v>70</v>
+      </c>
+      <c r="T11" t="s">
+        <v>42</v>
+      </c>
+      <c r="U11" t="s">
+        <v>45</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11" t="s">
+        <v>50</v>
+      </c>
+      <c r="X11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="2">
+        <v>43697</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R12" t="s">
+        <v>49</v>
+      </c>
+      <c r="S12" t="s">
+        <v>70</v>
+      </c>
+      <c r="T12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U12" t="s">
+        <v>45</v>
+      </c>
+      <c r="V12">
+        <v>2</v>
+      </c>
+      <c r="W12" t="s">
+        <v>71</v>
+      </c>
+      <c r="X12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="2">
+        <v>43697</v>
+      </c>
+      <c r="D13" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13" t="s">
+        <v>47</v>
+      </c>
+      <c r="P13" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>48</v>
+      </c>
+      <c r="R13" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" t="s">
+        <v>45</v>
+      </c>
+      <c r="T13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V13">
+        <v>3</v>
+      </c>
+      <c r="W13" t="s">
+        <v>50</v>
+      </c>
+      <c r="X13" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/praise-goals_data.xlsx
+++ b/analysis/praise-goals_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinkcupcakes123/Documents/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4638087D-5977-4A42-8523-767BA6B694B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D899CC-54EA-0D48-87E3-A387980D8336}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16240" xr2:uid="{ED4A2F99-2A64-E245-A7C2-8F26E97E91EE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="132">
   <si>
     <t>count</t>
   </si>
@@ -391,6 +391,42 @@
   </si>
   <si>
     <t>because she said these ones are best</t>
+  </si>
+  <si>
+    <t>PG_190822_01</t>
+  </si>
+  <si>
+    <t>bb282</t>
+  </si>
+  <si>
+    <t>because it has the stem first</t>
+  </si>
+  <si>
+    <t>because this is the same drawing [one of the ones that karen had given a sticker]</t>
+  </si>
+  <si>
+    <t>because they almost have the same shirt</t>
+  </si>
+  <si>
+    <t>because she's wearing a yellow shirt and that's my favorite color</t>
+  </si>
+  <si>
+    <t>PG_190822_02</t>
+  </si>
+  <si>
+    <t>bb056</t>
+  </si>
+  <si>
+    <t>because that one [bad] is just scribbles</t>
+  </si>
+  <si>
+    <t>I don’t know, I can't tell you</t>
+  </si>
+  <si>
+    <t>I think I accidentally made a subID on the iPad for this child, we can ignore it she didn't do praise draw so it should be an empty file; wouldn’t answer exploratory questions even after push</t>
+  </si>
+  <si>
+    <t>I can't tell you</t>
   </si>
 </sst>
 </file>
@@ -745,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E424048F-9EE3-4749-A4B4-5D096AA9A042}">
-  <dimension ref="A1:AK13"/>
+  <dimension ref="A1:AK15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK13" sqref="AK13"/>
+      <selection activeCell="AK15" sqref="AK15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2241,6 +2277,229 @@
         <v>119</v>
       </c>
     </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="2">
+        <v>43699</v>
+      </c>
+      <c r="D14" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" t="s">
+        <v>122</v>
+      </c>
+      <c r="L14" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" t="s">
+        <v>47</v>
+      </c>
+      <c r="P14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>48</v>
+      </c>
+      <c r="R14" t="s">
+        <v>49</v>
+      </c>
+      <c r="S14" t="s">
+        <v>45</v>
+      </c>
+      <c r="T14" t="s">
+        <v>48</v>
+      </c>
+      <c r="U14" t="s">
+        <v>49</v>
+      </c>
+      <c r="V14">
+        <v>4</v>
+      </c>
+      <c r="W14" t="s">
+        <v>71</v>
+      </c>
+      <c r="X14" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="2">
+        <v>43699</v>
+      </c>
+      <c r="D15" s="3">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N15" t="s">
+        <v>46</v>
+      </c>
+      <c r="O15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>48</v>
+      </c>
+      <c r="R15" t="s">
+        <v>49</v>
+      </c>
+      <c r="S15" t="s">
+        <v>70</v>
+      </c>
+      <c r="T15" t="s">
+        <v>42</v>
+      </c>
+      <c r="U15" t="s">
+        <v>45</v>
+      </c>
+      <c r="V15">
+        <v>5</v>
+      </c>
+      <c r="W15" t="s">
+        <v>50</v>
+      </c>
+      <c r="X15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/analysis/praise-goals_data.xlsx
+++ b/analysis/praise-goals_data.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pinkcupcakes123/Documents/GitHub/praise-draw/analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masaba/Documents/GitHub/praise-draw/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D899CC-54EA-0D48-87E3-A387980D8336}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0105E9A-CC59-CE4F-BA53-DEEAB8A2F2A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16240" xr2:uid="{ED4A2F99-2A64-E245-A7C2-8F26E97E91EE}"/>
+    <workbookView xWindow="-37000" yWindow="460" windowWidth="27640" windowHeight="16240" xr2:uid="{ED4A2F99-2A64-E245-A7C2-8F26E97E91EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="133">
   <si>
     <t>count</t>
   </si>
@@ -427,6 +421,9 @@
   </si>
   <si>
     <t>I can't tell you</t>
+  </si>
+  <si>
+    <t>age_bin</t>
   </si>
 </sst>
 </file>
@@ -781,52 +778,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E424048F-9EE3-4749-A4B4-5D096AA9A042}">
-  <dimension ref="A1:AK15"/>
+  <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK15" sqref="AK15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.1640625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" customWidth="1"/>
-    <col min="11" max="11" width="18.1640625" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" customWidth="1"/>
-    <col min="13" max="13" width="15.5" customWidth="1"/>
-    <col min="14" max="14" width="16.6640625" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" customWidth="1"/>
-    <col min="16" max="16" width="18.1640625" customWidth="1"/>
-    <col min="17" max="17" width="15.83203125" customWidth="1"/>
-    <col min="18" max="18" width="19" customWidth="1"/>
-    <col min="19" max="19" width="18.33203125" customWidth="1"/>
-    <col min="20" max="20" width="16" customWidth="1"/>
-    <col min="21" max="21" width="19.1640625" customWidth="1"/>
-    <col min="22" max="22" width="4.33203125" customWidth="1"/>
-    <col min="23" max="23" width="5.83203125" customWidth="1"/>
-    <col min="24" max="24" width="13.6640625" customWidth="1"/>
-    <col min="25" max="25" width="17.1640625" customWidth="1"/>
-    <col min="26" max="26" width="13.33203125" customWidth="1"/>
-    <col min="27" max="27" width="17.1640625" customWidth="1"/>
-    <col min="28" max="28" width="13.5" customWidth="1"/>
-    <col min="29" max="29" width="17" customWidth="1"/>
-    <col min="30" max="30" width="13.6640625" customWidth="1"/>
-    <col min="31" max="31" width="17.5" customWidth="1"/>
-    <col min="32" max="32" width="19.1640625" customWidth="1"/>
-    <col min="33" max="33" width="9.83203125" customWidth="1"/>
-    <col min="34" max="34" width="20.5" customWidth="1"/>
-    <col min="35" max="35" width="9.83203125" customWidth="1"/>
-    <col min="36" max="36" width="20.33203125" customWidth="1"/>
+    <col min="4" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="8" max="8" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" customWidth="1"/>
+    <col min="14" max="14" width="15.5" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" customWidth="1"/>
+    <col min="17" max="17" width="18.1640625" customWidth="1"/>
+    <col min="18" max="18" width="15.83203125" customWidth="1"/>
+    <col min="19" max="19" width="19" customWidth="1"/>
+    <col min="20" max="20" width="18.33203125" customWidth="1"/>
+    <col min="21" max="21" width="16" customWidth="1"/>
+    <col min="22" max="22" width="19.1640625" customWidth="1"/>
+    <col min="23" max="23" width="4.33203125" customWidth="1"/>
+    <col min="24" max="24" width="5.83203125" customWidth="1"/>
+    <col min="25" max="25" width="13.6640625" customWidth="1"/>
+    <col min="26" max="26" width="17.1640625" customWidth="1"/>
+    <col min="27" max="27" width="13.33203125" customWidth="1"/>
+    <col min="28" max="28" width="17.1640625" customWidth="1"/>
+    <col min="29" max="29" width="13.5" customWidth="1"/>
+    <col min="30" max="30" width="17" customWidth="1"/>
+    <col min="31" max="31" width="13.6640625" customWidth="1"/>
+    <col min="32" max="32" width="17.5" customWidth="1"/>
+    <col min="33" max="33" width="19.1640625" customWidth="1"/>
+    <col min="34" max="34" width="9.83203125" customWidth="1"/>
+    <col min="35" max="35" width="20.5" customWidth="1"/>
+    <col min="36" max="36" width="9.83203125" customWidth="1"/>
+    <col min="37" max="37" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -840,106 +837,109 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>36</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -952,107 +952,111 @@
       <c r="D2">
         <v>5.35</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <f>ROUNDDOWN(D2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>41</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>39</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>40</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>42</v>
       </c>
-      <c r="J2" t="s">
-        <v>43</v>
-      </c>
       <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s">
         <v>44</v>
       </c>
-      <c r="L2" t="s">
-        <v>45</v>
-      </c>
       <c r="M2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" t="s">
         <v>48</v>
       </c>
-      <c r="R2" t="s">
-        <v>49</v>
-      </c>
       <c r="S2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="T2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" t="s">
         <v>48</v>
       </c>
-      <c r="U2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V2">
+      <c r="V2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2">
         <v>1</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="X2" t="s">
-        <v>43</v>
-      </c>
       <c r="Y2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Z2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AA2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="AB2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AC2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="AD2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AE2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AF2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG2" t="s">
         <v>52</v>
       </c>
-      <c r="AG2" t="s">
-        <v>47</v>
-      </c>
       <c r="AH2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI2" t="s">
         <v>53</v>
       </c>
-      <c r="AI2" t="s">
-        <v>47</v>
-      </c>
       <c r="AJ2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK2" t="s">
         <v>55</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1065,107 +1069,111 @@
       <c r="D3">
         <v>5.08</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <f t="shared" ref="E3:E15" si="0">ROUNDDOWN(D3,0)</f>
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
         <v>58</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>39</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>40</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>42</v>
       </c>
-      <c r="J3" t="s">
-        <v>43</v>
-      </c>
       <c r="K3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
-        <v>45</v>
-      </c>
       <c r="M3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" t="s">
         <v>48</v>
       </c>
-      <c r="R3" t="s">
-        <v>49</v>
-      </c>
       <c r="S3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="T3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" t="s">
         <v>48</v>
       </c>
-      <c r="U3" t="s">
-        <v>49</v>
-      </c>
-      <c r="V3">
+      <c r="V3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3">
         <v>2</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>50</v>
       </c>
-      <c r="X3" t="s">
-        <v>43</v>
-      </c>
       <c r="Y3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Z3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AA3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AB3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AC3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="AD3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AE3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AF3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG3" t="s">
         <v>61</v>
       </c>
-      <c r="AG3" t="s">
-        <v>47</v>
-      </c>
       <c r="AH3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI3" t="s">
         <v>61</v>
       </c>
-      <c r="AI3" t="s">
-        <v>47</v>
-      </c>
       <c r="AJ3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK3" t="s">
         <v>61</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1178,104 +1186,108 @@
       <c r="D4">
         <v>4.4800000000000004</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
         <v>58</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>39</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>40</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>42</v>
       </c>
-      <c r="J4" t="s">
-        <v>43</v>
-      </c>
       <c r="K4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="L4" t="s">
-        <v>45</v>
-      </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" t="s">
         <v>48</v>
       </c>
-      <c r="R4" t="s">
-        <v>49</v>
-      </c>
       <c r="S4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="T4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U4" t="s">
         <v>48</v>
       </c>
-      <c r="U4" t="s">
-        <v>49</v>
-      </c>
-      <c r="V4">
+      <c r="V4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4">
         <v>3</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>50</v>
       </c>
-      <c r="X4" t="s">
-        <v>43</v>
-      </c>
       <c r="Y4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AA4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="AB4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AC4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AD4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AE4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AF4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG4" t="s">
         <v>65</v>
       </c>
-      <c r="AG4" t="s">
-        <v>46</v>
-      </c>
       <c r="AH4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI4" t="s">
         <v>66</v>
       </c>
-      <c r="AI4" t="s">
-        <v>46</v>
-      </c>
       <c r="AJ4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1288,104 +1300,108 @@
       <c r="D5">
         <v>4.08</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
         <v>38</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>68</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>40</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>42</v>
       </c>
-      <c r="J5" t="s">
-        <v>43</v>
-      </c>
       <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" t="s">
         <v>69</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>70</v>
       </c>
-      <c r="M5" t="s">
-        <v>47</v>
-      </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" t="s">
         <v>48</v>
       </c>
-      <c r="R5" t="s">
-        <v>49</v>
-      </c>
       <c r="S5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="T5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U5" t="s">
         <v>48</v>
       </c>
-      <c r="U5" t="s">
-        <v>49</v>
-      </c>
-      <c r="V5">
+      <c r="V5" t="s">
+        <v>49</v>
+      </c>
+      <c r="W5">
         <v>4</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>71</v>
       </c>
-      <c r="X5" t="s">
-        <v>43</v>
-      </c>
       <c r="Y5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Z5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AA5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="AB5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AC5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="AD5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AE5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AF5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG5" t="s">
         <v>72</v>
       </c>
-      <c r="AG5" t="s">
-        <v>46</v>
-      </c>
       <c r="AH5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI5" t="s">
         <v>73</v>
       </c>
-      <c r="AI5" t="s">
-        <v>47</v>
-      </c>
       <c r="AJ5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1398,104 +1414,108 @@
       <c r="D6">
         <v>5.33</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
         <v>58</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>76</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>39</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>40</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>42</v>
       </c>
-      <c r="J6" t="s">
-        <v>43</v>
-      </c>
       <c r="K6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" t="s">
         <v>77</v>
       </c>
-      <c r="L6" t="s">
-        <v>45</v>
-      </c>
       <c r="M6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O6" t="s">
         <v>46</v>
       </c>
       <c r="P6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q6" t="s">
+        <v>45</v>
+      </c>
+      <c r="R6" t="s">
         <v>48</v>
       </c>
-      <c r="R6" t="s">
-        <v>49</v>
-      </c>
       <c r="S6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="T6" t="s">
+        <v>45</v>
+      </c>
+      <c r="U6" t="s">
         <v>48</v>
       </c>
-      <c r="U6" t="s">
-        <v>49</v>
-      </c>
-      <c r="V6">
+      <c r="V6" t="s">
+        <v>49</v>
+      </c>
+      <c r="W6">
         <v>5</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>71</v>
       </c>
-      <c r="X6" t="s">
-        <v>43</v>
-      </c>
       <c r="Y6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Z6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AA6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AB6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AC6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AD6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AE6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AF6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG6" t="s">
         <v>78</v>
       </c>
-      <c r="AG6" t="s">
-        <v>47</v>
-      </c>
       <c r="AH6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI6" t="s">
         <v>79</v>
       </c>
-      <c r="AI6" t="s">
-        <v>46</v>
-      </c>
       <c r="AJ6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1508,104 +1528,108 @@
       <c r="D7">
         <v>5.88</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>81</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>39</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>40</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>42</v>
       </c>
-      <c r="J7" t="s">
-        <v>43</v>
-      </c>
       <c r="K7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" t="s">
         <v>82</v>
       </c>
-      <c r="L7" t="s">
-        <v>45</v>
-      </c>
       <c r="M7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O7" t="s">
         <v>46</v>
       </c>
       <c r="P7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q7" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" t="s">
         <v>48</v>
       </c>
-      <c r="R7" t="s">
-        <v>49</v>
-      </c>
       <c r="S7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="T7" t="s">
+        <v>45</v>
+      </c>
+      <c r="U7" t="s">
         <v>48</v>
       </c>
-      <c r="U7" t="s">
-        <v>49</v>
-      </c>
-      <c r="V7">
+      <c r="V7" t="s">
+        <v>49</v>
+      </c>
+      <c r="W7">
         <v>6</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>71</v>
       </c>
-      <c r="X7" t="s">
-        <v>43</v>
-      </c>
       <c r="Y7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Z7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AA7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AB7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AC7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AD7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AE7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AF7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG7" t="s">
         <v>83</v>
       </c>
-      <c r="AG7" t="s">
-        <v>46</v>
-      </c>
       <c r="AH7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI7" t="s">
         <v>84</v>
       </c>
-      <c r="AI7" t="s">
-        <v>47</v>
-      </c>
       <c r="AJ7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1618,107 +1642,111 @@
       <c r="D8">
         <v>4.55</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
         <v>58</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>87</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>39</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>40</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>42</v>
       </c>
-      <c r="J8" t="s">
-        <v>43</v>
-      </c>
       <c r="K8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" t="s">
         <v>88</v>
       </c>
-      <c r="L8" t="s">
-        <v>45</v>
-      </c>
       <c r="M8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O8" t="s">
         <v>47</v>
       </c>
       <c r="P8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q8" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8" t="s">
         <v>48</v>
       </c>
-      <c r="R8" t="s">
-        <v>49</v>
-      </c>
       <c r="S8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="T8" t="s">
+        <v>45</v>
+      </c>
+      <c r="U8" t="s">
         <v>48</v>
       </c>
-      <c r="U8" t="s">
-        <v>49</v>
-      </c>
-      <c r="V8">
+      <c r="V8" t="s">
+        <v>49</v>
+      </c>
+      <c r="W8">
         <v>7</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>50</v>
       </c>
-      <c r="X8" t="s">
-        <v>43</v>
-      </c>
       <c r="Y8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AA8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="AB8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AC8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="AD8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AE8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AF8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG8" t="s">
         <v>89</v>
       </c>
-      <c r="AG8" t="s">
-        <v>46</v>
-      </c>
       <c r="AH8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI8" t="s">
         <v>90</v>
       </c>
-      <c r="AI8" t="s">
-        <v>47</v>
-      </c>
       <c r="AJ8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK8" t="s">
         <v>91</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AL8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1731,107 +1759,111 @@
       <c r="D9">
         <v>4.04</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
         <v>58</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>93</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>39</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>40</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>42</v>
       </c>
-      <c r="J9" t="s">
-        <v>43</v>
-      </c>
       <c r="K9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" t="s">
         <v>94</v>
       </c>
-      <c r="L9" t="s">
-        <v>45</v>
-      </c>
       <c r="M9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O9" t="s">
         <v>47</v>
       </c>
       <c r="P9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q9" t="s">
+        <v>45</v>
+      </c>
+      <c r="R9" t="s">
         <v>48</v>
       </c>
-      <c r="R9" t="s">
-        <v>49</v>
-      </c>
       <c r="S9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="T9" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9" t="s">
         <v>48</v>
       </c>
-      <c r="U9" t="s">
-        <v>49</v>
-      </c>
-      <c r="V9">
+      <c r="V9" t="s">
+        <v>49</v>
+      </c>
+      <c r="W9">
         <v>8</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>71</v>
       </c>
-      <c r="X9" t="s">
-        <v>43</v>
-      </c>
       <c r="Y9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Z9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AA9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AB9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AC9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="AD9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AE9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AF9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG9" t="s">
         <v>95</v>
       </c>
-      <c r="AG9" t="s">
-        <v>47</v>
-      </c>
       <c r="AH9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI9" t="s">
         <v>97</v>
       </c>
-      <c r="AI9" t="s">
-        <v>47</v>
-      </c>
       <c r="AJ9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK9" t="s">
         <v>98</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AL9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1844,107 +1876,111 @@
       <c r="D10">
         <v>4.62</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
         <v>58</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>100</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>39</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>40</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>42</v>
       </c>
-      <c r="J10" t="s">
-        <v>43</v>
-      </c>
       <c r="K10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" t="s">
         <v>101</v>
       </c>
-      <c r="L10" t="s">
-        <v>45</v>
-      </c>
       <c r="M10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q10" t="s">
+        <v>45</v>
+      </c>
+      <c r="R10" t="s">
         <v>48</v>
       </c>
-      <c r="R10" t="s">
-        <v>49</v>
-      </c>
       <c r="S10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="T10" t="s">
+        <v>45</v>
+      </c>
+      <c r="U10" t="s">
         <v>48</v>
       </c>
-      <c r="U10" t="s">
-        <v>49</v>
-      </c>
-      <c r="V10">
+      <c r="V10" t="s">
+        <v>49</v>
+      </c>
+      <c r="W10">
         <v>1</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>50</v>
       </c>
-      <c r="X10" t="s">
-        <v>43</v>
-      </c>
       <c r="Y10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AA10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="AB10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AC10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AD10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AE10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AF10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AG10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AH10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI10" t="s">
         <v>61</v>
       </c>
-      <c r="AI10" t="s">
-        <v>46</v>
-      </c>
       <c r="AJ10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK10" t="s">
         <v>61</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AL10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1957,96 +1993,97 @@
       <c r="D11">
         <v>5.1100000000000003</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
         <v>58</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>104</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>39</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>40</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>42</v>
       </c>
-      <c r="J11" t="s">
-        <v>43</v>
-      </c>
       <c r="K11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" t="s">
         <v>105</v>
       </c>
-      <c r="L11" t="s">
-        <v>45</v>
-      </c>
       <c r="M11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q11" t="s">
+        <v>45</v>
+      </c>
+      <c r="R11" t="s">
         <v>48</v>
       </c>
-      <c r="R11" t="s">
-        <v>49</v>
-      </c>
       <c r="S11" t="s">
+        <v>49</v>
+      </c>
+      <c r="T11" t="s">
         <v>70</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>42</v>
       </c>
-      <c r="U11" t="s">
-        <v>45</v>
-      </c>
-      <c r="V11">
+      <c r="V11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W11">
         <v>1</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>50</v>
       </c>
-      <c r="X11" t="s">
-        <v>43</v>
-      </c>
       <c r="Y11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Z11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AA11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AB11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AC11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AD11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AE11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AF11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG11" t="s">
         <v>61</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AH11" t="s">
         <v>106</v>
       </c>
-      <c r="AH11" t="s">
-        <v>49</v>
-      </c>
       <c r="AI11" t="s">
         <v>49</v>
       </c>
@@ -2054,10 +2091,13 @@
         <v>49</v>
       </c>
       <c r="AK11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2070,104 +2110,108 @@
       <c r="D12" s="3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
         <v>38</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>109</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>39</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>40</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>42</v>
       </c>
-      <c r="J12" t="s">
-        <v>43</v>
-      </c>
       <c r="K12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" t="s">
         <v>110</v>
       </c>
-      <c r="L12" t="s">
-        <v>45</v>
-      </c>
       <c r="M12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q12" t="s">
+        <v>45</v>
+      </c>
+      <c r="R12" t="s">
         <v>48</v>
       </c>
-      <c r="R12" t="s">
-        <v>49</v>
-      </c>
       <c r="S12" t="s">
+        <v>49</v>
+      </c>
+      <c r="T12" t="s">
         <v>70</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>42</v>
       </c>
-      <c r="U12" t="s">
-        <v>45</v>
-      </c>
-      <c r="V12">
+      <c r="V12" t="s">
+        <v>45</v>
+      </c>
+      <c r="W12">
         <v>2</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>71</v>
       </c>
-      <c r="X12" t="s">
-        <v>51</v>
-      </c>
       <c r="Y12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Z12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AA12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AB12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AC12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AE12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AF12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG12" t="s">
         <v>111</v>
       </c>
-      <c r="AG12" t="s">
-        <v>46</v>
-      </c>
       <c r="AH12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI12" t="s">
         <v>112</v>
       </c>
-      <c r="AI12" t="s">
-        <v>46</v>
-      </c>
       <c r="AJ12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2180,104 +2224,108 @@
       <c r="D13" s="3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
         <v>58</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>115</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>39</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>40</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>42</v>
       </c>
-      <c r="J13" t="s">
-        <v>43</v>
-      </c>
       <c r="K13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" t="s">
         <v>116</v>
       </c>
-      <c r="L13" t="s">
-        <v>45</v>
-      </c>
       <c r="M13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q13" t="s">
+        <v>45</v>
+      </c>
+      <c r="R13" t="s">
         <v>48</v>
       </c>
-      <c r="R13" t="s">
-        <v>49</v>
-      </c>
       <c r="S13" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="T13" t="s">
+        <v>45</v>
+      </c>
+      <c r="U13" t="s">
         <v>48</v>
       </c>
-      <c r="U13" t="s">
-        <v>49</v>
-      </c>
-      <c r="V13">
+      <c r="V13" t="s">
+        <v>49</v>
+      </c>
+      <c r="W13">
         <v>3</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>50</v>
       </c>
-      <c r="X13" t="s">
-        <v>43</v>
-      </c>
       <c r="Y13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Z13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AA13" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AB13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AC13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AD13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AE13" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AF13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG13" t="s">
         <v>117</v>
       </c>
-      <c r="AG13" t="s">
-        <v>47</v>
-      </c>
       <c r="AH13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI13" t="s">
         <v>118</v>
       </c>
-      <c r="AI13" t="s">
-        <v>47</v>
-      </c>
       <c r="AJ13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2290,104 +2338,108 @@
       <c r="D14" s="3">
         <v>4.5</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
         <v>38</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>121</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>39</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>40</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>42</v>
       </c>
-      <c r="J14" t="s">
-        <v>43</v>
-      </c>
       <c r="K14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" t="s">
         <v>122</v>
       </c>
-      <c r="L14" t="s">
-        <v>45</v>
-      </c>
       <c r="M14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q14" t="s">
+        <v>45</v>
+      </c>
+      <c r="R14" t="s">
         <v>48</v>
       </c>
-      <c r="R14" t="s">
-        <v>49</v>
-      </c>
       <c r="S14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="T14" t="s">
+        <v>45</v>
+      </c>
+      <c r="U14" t="s">
         <v>48</v>
       </c>
-      <c r="U14" t="s">
-        <v>49</v>
-      </c>
-      <c r="V14">
+      <c r="V14" t="s">
+        <v>49</v>
+      </c>
+      <c r="W14">
         <v>4</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>71</v>
       </c>
-      <c r="X14" t="s">
-        <v>51</v>
-      </c>
       <c r="Y14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Z14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AA14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AB14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AC14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AD14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AE14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AF14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG14" t="s">
         <v>123</v>
       </c>
-      <c r="AG14" t="s">
-        <v>46</v>
-      </c>
       <c r="AH14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI14" t="s">
         <v>124</v>
       </c>
-      <c r="AI14" t="s">
-        <v>46</v>
-      </c>
       <c r="AJ14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2400,103 +2452,107 @@
       <c r="D15" s="3">
         <v>4.6100000000000003</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
         <v>58</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>127</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>39</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>40</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>42</v>
       </c>
-      <c r="J15" t="s">
-        <v>43</v>
-      </c>
       <c r="K15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" t="s">
         <v>128</v>
       </c>
-      <c r="L15" t="s">
-        <v>45</v>
-      </c>
       <c r="M15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" t="s">
         <v>46</v>
       </c>
       <c r="P15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q15" t="s">
+        <v>45</v>
+      </c>
+      <c r="R15" t="s">
         <v>48</v>
       </c>
-      <c r="R15" t="s">
-        <v>49</v>
-      </c>
       <c r="S15" t="s">
+        <v>49</v>
+      </c>
+      <c r="T15" t="s">
         <v>70</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>42</v>
       </c>
-      <c r="U15" t="s">
-        <v>45</v>
-      </c>
-      <c r="V15">
+      <c r="V15" t="s">
+        <v>45</v>
+      </c>
+      <c r="W15">
         <v>5</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>50</v>
       </c>
-      <c r="X15" t="s">
-        <v>43</v>
-      </c>
       <c r="Y15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AA15" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="AB15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AC15" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="AD15" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AE15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AF15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG15" t="s">
         <v>129</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AH15" t="s">
         <v>66</v>
       </c>
-      <c r="AH15" t="s">
-        <v>49</v>
-      </c>
       <c r="AI15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AJ15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK15" t="s">
         <v>131</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AL15" t="s">
         <v>130</v>
       </c>
     </row>
